--- a/document/Rest Server API.xlsx
+++ b/document/Rest Server API.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>request URI</t>
   </si>
@@ -220,6 +220,9 @@
 startpoint</t>
   </si>
   <si>
+    <t>获取评论内容列表</t>
+  </si>
+  <si>
     <t>Success: 
 Json{
 endpoint: , 
@@ -227,11 +230,41 @@
 {mark,
 comments,
 create_user_id,
+create_user_name,
 create_date,
-},{}]</t>
-  </si>
-  <si>
-    <t>获取评论内容列表</t>
+},{}]
+fail: false</t>
+  </si>
+  <si>
+    <t>Json
+{mark,
+comments,
+create_user_id,
+create_user_name}</t>
+  </si>
+  <si>
+    <t>Success:customer_message_id
+fail:false</t>
+  </si>
+  <si>
+    <t>创建评论评分</t>
+  </si>
+  <si>
+    <t>GetStandMarkCommentExist</t>
+  </si>
+  <si>
+    <t>CreateStandMarkComment</t>
+  </si>
+  <si>
+    <t>stand_id,
+create_user_id</t>
+  </si>
+  <si>
+    <t>Success: 1/0
+fail:false</t>
+  </si>
+  <si>
+    <t>获取该用户是否已经评分</t>
   </si>
 </sst>
 </file>
@@ -553,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -748,7 +781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="135">
+    <row r="10" spans="1:6" ht="165">
       <c r="A10">
         <v>9</v>
       </c>
@@ -762,10 +795,50 @@
         <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="F10" t="s">
-        <v>53</v>
+    </row>
+    <row r="11" spans="1:6" ht="75">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/document/Rest Server API.xlsx
+++ b/document/Rest Server API.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="API List" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
   <si>
     <t>request URI</t>
   </si>
@@ -265,6 +265,84 @@
   </si>
   <si>
     <t>获取该用户是否已经评分</t>
+  </si>
+  <si>
+    <t>CreateStandOwnerMessage</t>
+  </si>
+  <si>
+    <t>stand_id</t>
+  </si>
+  <si>
+    <t>stand_id
+message</t>
+  </si>
+  <si>
+    <t>Success: stand_owner_message_id
+fail:false</t>
+  </si>
+  <si>
+    <t>摊主留言</t>
+  </si>
+  <si>
+    <t>GetStandOwnerMessages</t>
+  </si>
+  <si>
+    <t>Success: stand_owner_message_id
+message
+create_date
+fail:false</t>
+  </si>
+  <si>
+    <t>获取摊主留言</t>
+  </si>
+  <si>
+    <t>GetStandTypes</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>Success: [
+"Typename": “aaa"
+"Children"：{
+["Typename": “aaa"
+"Children"：{
+},
+]
+}
+]</t>
+  </si>
+  <si>
+    <t>获取摊位类型</t>
+  </si>
+  <si>
+    <t>SetStandLocation</t>
+  </si>
+  <si>
+    <t>Json{
+stand_id
+location_x
+location_y
+create_date
+week_workingday
+working_time
+}</t>
+  </si>
+  <si>
+    <t>设置摊位位置</t>
+  </si>
+  <si>
+    <t>Success: stand_location_id
+Fail: false</t>
+  </si>
+  <si>
+    <t>获取摊位位置</t>
+  </si>
+  <si>
+    <t>GetStandLocations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stand_id </t>
   </si>
 </sst>
 </file>
@@ -586,9 +664,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -839,6 +917,91 @@
       </c>
       <c r="F12" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45">
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75">
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="180">
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="120">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30">
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/document/Rest Server API.xlsx
+++ b/document/Rest Server API.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>request URI</t>
   </si>
@@ -69,19 +69,7 @@
     <t>用户注册，返回用户信息</t>
   </si>
   <si>
-    <t>UpdateUserImage</t>
-  </si>
-  <si>
-    <t>Image_Id</t>
-  </si>
-  <si>
-    <t>上传用户图片</t>
-  </si>
-  <si>
     <t>UpdateUser</t>
-  </si>
-  <si>
-    <t>post/put</t>
   </si>
   <si>
     <t>更新用户信息</t>
@@ -336,13 +324,23 @@
 Fail: false</t>
   </si>
   <si>
-    <t>获取摊位位置</t>
-  </si>
-  <si>
-    <t>GetStandLocations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stand_id </t>
+    <t>GetImageUploadSecurityString</t>
+  </si>
+  <si>
+    <t>MD5 encrypted username</t>
+  </si>
+  <si>
+    <t>获取上传security编码 --阿里云专用</t>
+  </si>
+  <si>
+    <t>GetProvinceCityAreas</t>
+  </si>
+  <si>
+    <t>Success: Json
+Fail: false</t>
+  </si>
+  <si>
+    <t>获取省市区</t>
   </si>
 </sst>
 </file>
@@ -666,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -713,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -733,55 +731,55 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="105">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="105">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
+    </row>
+    <row r="6" spans="1:6" ht="90">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -790,18 +788,18 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="90">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -810,18 +808,18 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -830,121 +828,127 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="165">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="165">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="75">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45">
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" t="s">
         <v>65</v>
       </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="180">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="75">
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>68</v>
@@ -953,55 +957,61 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="180">
+    <row r="15" spans="1:6" ht="120">
+      <c r="A15">
+        <v>15</v>
+      </c>
       <c r="B15" t="s">
         <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
         <v>72</v>
       </c>
-      <c r="F15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="120">
+    </row>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16">
+        <v>16</v>
+      </c>
       <c r="B16" t="s">
         <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="30">
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17">
+        <v>17</v>
+      </c>
       <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
         <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1052,19 +1062,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
@@ -1072,19 +1082,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -1092,19 +1102,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/document/Rest Server API.xlsx
+++ b/document/Rest Server API.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="API List" sheetId="1" r:id="rId1"/>
-    <sheet name="China_Location_API" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>request URI</t>
   </si>
@@ -49,15 +48,6 @@
   </si>
   <si>
     <t>RegisterUser</t>
-  </si>
-  <si>
-    <t>username
-password</t>
-  </si>
-  <si>
-    <t>username
-password
-usertype</t>
   </si>
   <si>
     <t>Return</t>
@@ -161,51 +151,7 @@
     <t>get</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Success: Province list string
-Fail: false</t>
-  </si>
-  <si>
-    <t>获取中国所有省份</t>
-  </si>
-  <si>
-    <t>GetProvinces</t>
-  </si>
-  <si>
-    <t>GetCities</t>
-  </si>
-  <si>
-    <t>Province string</t>
-  </si>
-  <si>
-    <t>Success: City list string
-Fail: false</t>
-  </si>
-  <si>
-    <t>获取指定省份的所有城市</t>
-  </si>
-  <si>
-    <t>GetAreas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City string </t>
-  </si>
-  <si>
-    <t>Success: Areas list string
-Fail: false</t>
-  </si>
-  <si>
-    <t>获取指定城市的所有区域</t>
-  </si>
-  <si>
     <t>GetStandCustomerMarkComments</t>
-  </si>
-  <si>
-    <t>stand_id
-number
-startpoint</t>
   </si>
   <si>
     <t>获取评论内容列表</t>
@@ -290,17 +236,6 @@
     <t>void</t>
   </si>
   <si>
-    <t>Success: [
-"Typename": “aaa"
-"Children"：{
-["Typename": “aaa"
-"Children"：{
-},
-]
-}
-]</t>
-  </si>
-  <si>
     <t>获取摊位类型</t>
   </si>
   <si>
@@ -333,14 +268,36 @@
     <t>获取上传security编码 --阿里云专用</t>
   </si>
   <si>
-    <t>GetProvinceCityAreas</t>
-  </si>
-  <si>
-    <t>Success: Json
+    <t>GetAuthCode</t>
+  </si>
+  <si>
+    <t>Success: security code
 Fail: false</t>
   </si>
   <si>
-    <t>获取省市区</t>
+    <t>stand_id
+pagesize
+offset</t>
+  </si>
+  <si>
+    <t>获取访问校检码， 所有rest request 的前置步骤</t>
+  </si>
+  <si>
+    <t>Success: [
+"Typename": “aaa"
+"Children"：{
+["Typename": “aaa"
+"Children"：{
+},]}]</t>
+  </si>
+  <si>
+    <t>user_name
+password</t>
+  </si>
+  <si>
+    <t>user_name
+password
+usertype</t>
   </si>
 </sst>
 </file>
@@ -357,12 +314,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -377,9 +340,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -664,13 +631,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
@@ -691,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -708,13 +675,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45">
@@ -728,13 +695,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="105">
@@ -742,19 +709,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
@@ -762,19 +729,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="90">
@@ -782,19 +749,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="60">
@@ -802,39 +769,39 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="30">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="165">
@@ -842,19 +809,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="75">
@@ -862,19 +829,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -882,19 +849,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45">
@@ -902,19 +869,19 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="75">
@@ -922,39 +889,39 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="180">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="90">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="120">
@@ -962,19 +929,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
@@ -982,19 +949,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30">
@@ -1002,122 +969,23 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/document/Rest Server API.xlsx
+++ b/document/Rest Server API.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>request URI</t>
   </si>
@@ -138,13 +138,6 @@
     <t>ChangeRealtimeLocationStatus</t>
   </si>
   <si>
-    <t>current_status</t>
-  </si>
-  <si>
-    <t>Success: changestatus
-fail: false</t>
-  </si>
-  <si>
     <t>更新实时位置显示状态</t>
   </si>
   <si>
@@ -298,6 +291,9 @@
     <t>user_name
 password
 usertype</t>
+  </si>
+  <si>
+    <t>taregetStatus</t>
   </si>
 </sst>
 </file>
@@ -314,18 +310,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -345,8 +335,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -631,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -675,7 +665,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -695,7 +685,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -795,13 +785,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="165">
@@ -809,19 +799,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="75">
@@ -829,19 +819,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
         <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -849,19 +839,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
         <v>40</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45">
@@ -869,19 +859,19 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
         <v>45</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="75">
@@ -889,19 +879,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="90">
@@ -909,19 +899,19 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="120">
@@ -929,19 +919,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
@@ -949,19 +939,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
         <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30">
@@ -969,19 +959,19 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
         <v>62</v>
-      </c>
-      <c r="F17" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/document/Rest Server API.xlsx
+++ b/document/Rest Server API.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>request URI</t>
   </si>
@@ -230,26 +230,6 @@
   </si>
   <si>
     <t>获取摊位类型</t>
-  </si>
-  <si>
-    <t>SetStandLocation</t>
-  </si>
-  <si>
-    <t>Json{
-stand_id
-location_x
-location_y
-create_date
-week_workingday
-working_time
-}</t>
-  </si>
-  <si>
-    <t>设置摊位位置</t>
-  </si>
-  <si>
-    <t>Success: stand_location_id
-Fail: false</t>
   </si>
   <si>
     <t>GetImageUploadSecurityString</t>
@@ -619,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -665,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -685,7 +665,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -785,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
@@ -805,7 +785,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>32</v>
@@ -908,13 +888,13 @@
         <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="120">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15">
         <v>15</v>
       </c>
@@ -922,13 +902,13 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
         <v>54</v>
@@ -939,39 +919,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/document/Rest Server API.xlsx
+++ b/document/Rest Server API.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
   <si>
     <t>request URI</t>
   </si>
@@ -274,6 +274,39 @@
   </si>
   <si>
     <t>taregetStatus</t>
+  </si>
+  <si>
+    <t>AddLinkToStand</t>
+  </si>
+  <si>
+    <t>RemoveLinkFromStand</t>
+  </si>
+  <si>
+    <t>FetchLinkListByUsername</t>
+  </si>
+  <si>
+    <t>FetchLinkListByStandId</t>
+  </si>
+  <si>
+    <t>standUserLink</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>standid</t>
+  </si>
+  <si>
+    <t>用户添加摊位关联/收藏</t>
+  </si>
+  <si>
+    <t>用户移除摊位关联/收藏</t>
+  </si>
+  <si>
+    <t>获取该用户所有收藏/关联摊位</t>
+  </si>
+  <si>
+    <t>获取指定摊位获取的所有关注</t>
   </si>
 </sst>
 </file>
@@ -599,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B17" sqref="B17:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -934,6 +967,86 @@
         <v>58</v>
       </c>
     </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
